--- a/01_MP_values/soccer/MP55_Transform.xlsx
+++ b/01_MP_values/soccer/MP55_Transform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\02_projects\2018_Soccer_Mouthguard\data\baselines\MP0055 - Calibration Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medctr\dfs\cib$\shared\02_projects\mouthpiece_data_collection\00_MATLAB_Code\01_MP_values\soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6A4701-E423-489A-992F-1FDBF1868D0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B55575-C8D8-4387-8B79-A48CAFF78D38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{D6309130-4B88-4824-A8DB-AAFA103DFDE2}"/>
+    <workbookView xWindow="1365" yWindow="795" windowWidth="23445" windowHeight="14595" xr2:uid="{D6309130-4B88-4824-A8DB-AAFA103DFDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,44 +420,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61.37</v>
+        <v>59.18392416795281</v>
       </c>
       <c r="B2">
-        <v>0.90400000000000003</v>
+        <v>0.97541843996078503</v>
       </c>
       <c r="C2">
-        <v>-0.35830000000000001</v>
+        <v>0.11322287707876791</v>
       </c>
       <c r="D2">
-        <v>0.23330000000000001</v>
+        <v>-0.18904879552770137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9.3000000000000007</v>
+        <v>-1.2981389633266929</v>
       </c>
       <c r="B3">
-        <v>-0.40089999999999998</v>
+        <v>0.21976993030678696</v>
       </c>
       <c r="C3">
-        <v>-0.52070000000000005</v>
+        <v>-0.43705177241751514</v>
       </c>
       <c r="D3">
-        <v>0.75370000000000004</v>
+        <v>0.87217367878173124</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-69.61</v>
+        <v>-75.619181804792873</v>
       </c>
       <c r="B4">
-        <v>-0.14849999999999999</v>
+        <v>1.612590206526247E-2</v>
       </c>
       <c r="C4">
-        <v>-0.77490000000000003</v>
+        <v>-0.8922815297498401</v>
       </c>
       <c r="D4">
-        <v>-0.61439999999999995</v>
+        <v>-0.45119134183832338</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
